--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1546,10 +1558,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1593,28 +1605,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1639,28 +1651,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1806,10 +1818,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1853,28 +1865,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1899,28 +1911,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2020,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2055,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2113,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2384,10 +2396,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2431,28 +2443,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2477,28 +2489,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2731,10 +2743,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2778,28 +2790,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2824,28 +2836,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2991,10 +3003,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3038,28 +3050,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3084,28 +3096,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3396,10 +3408,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3443,28 +3455,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3489,28 +3501,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3743,10 +3755,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3790,28 +3802,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3836,28 +3848,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3945,10 +3957,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3992,28 +4004,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4038,28 +4050,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4205,10 +4217,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4252,28 +4264,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4298,28 +4310,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4436,10 +4448,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4483,28 +4495,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4529,28 +4541,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4638,10 +4650,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4685,28 +4697,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4731,28 +4743,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4869,10 +4881,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4916,28 +4928,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4962,28 +4974,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5042,10 +5054,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5089,28 +5101,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5135,28 +5147,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5256,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5291,28 +5303,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5349,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5417,10 +5429,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5464,28 +5476,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5510,28 +5522,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5619,10 +5631,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5666,28 +5678,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5712,28 +5724,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5821,10 +5833,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5868,28 +5880,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5914,28 +5926,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5994,10 +6006,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6041,28 +6053,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6087,28 +6099,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6196,10 +6208,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6243,28 +6255,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6289,28 +6301,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6398,10 +6410,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6445,28 +6457,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6491,28 +6503,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6571,10 +6583,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6618,28 +6630,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6664,28 +6676,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6773,10 +6785,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6820,28 +6832,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6866,28 +6878,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6946,10 +6958,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6993,28 +7005,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7039,28 +7051,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7148,10 +7160,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7195,28 +7207,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7241,28 +7253,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7321,10 +7333,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7368,28 +7380,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7414,28 +7426,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7494,10 +7506,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7541,28 +7553,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7587,28 +7599,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7667,10 +7679,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
